--- a/data/outputs/management_altmetric/85.xlsx
+++ b/data/outputs/management_altmetric/85.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE111"/>
+  <dimension ref="A1:CF111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1033,6 +1038,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1272,6 +1280,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1515,6 +1526,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1758,6 +1772,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1997,6 +2014,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2242,6 +2262,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2499,6 +2522,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2738,6 +2764,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2993,6 +3022,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3240,6 +3272,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3479,6 +3514,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3718,6 +3756,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3957,6 +3998,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4204,6 +4248,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4443,6 +4490,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4692,6 +4742,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>4.35</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4935,6 +4988,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5174,6 +5230,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5429,6 +5488,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5676,6 +5738,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5925,6 +5990,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6186,6 +6254,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6431,6 +6502,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6670,6 +6744,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6919,6 +6996,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7174,6 +7254,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7413,6 +7496,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7662,6 +7748,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7905,6 +7994,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8144,6 +8236,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8399,6 +8494,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8650,6 +8748,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8901,6 +9002,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9152,6 +9256,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9393,6 +9500,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9632,6 +9742,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9885,6 +9998,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10138,6 +10254,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10387,6 +10506,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>6.35</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10626,6 +10748,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10867,6 +10992,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11110,6 +11238,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11361,6 +11492,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11616,6 +11750,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11869,6 +12006,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>2.25</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12120,6 +12260,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12363,6 +12506,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12614,6 +12760,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12853,6 +13002,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13102,6 +13254,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13357,6 +13512,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13604,6 +13762,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13855,6 +14016,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14098,6 +14262,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14355,6 +14522,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>67.498</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14594,6 +14764,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14843,6 +15016,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15092,6 +15268,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15339,6 +15518,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15586,6 +15768,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15841,6 +16026,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16088,6 +16276,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16335,6 +16526,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16578,6 +16772,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16829,6 +17026,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17076,6 +17276,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17321,6 +17524,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17576,6 +17782,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17837,6 +18046,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18086,6 +18298,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>43.192</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18325,6 +18540,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18576,6 +18794,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18819,6 +19040,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19064,6 +19288,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19303,6 +19530,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19550,6 +19780,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19801,6 +20034,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20040,6 +20276,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20287,6 +20526,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20526,6 +20768,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20765,6 +21010,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21004,6 +21252,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21251,6 +21502,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21508,6 +21762,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21747,6 +22004,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22008,6 +22268,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>19.55</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22247,6 +22510,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22486,6 +22752,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22741,6 +23010,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22990,6 +23262,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23237,6 +23512,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23476,6 +23754,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23725,6 +24006,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>27.542</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -23964,6 +24248,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24219,6 +24506,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24466,6 +24756,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24713,6 +25006,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -24952,6 +25248,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25199,6 +25498,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25446,6 +25748,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25689,6 +25994,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -25944,6 +26252,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26195,6 +26506,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26438,6 +26752,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26687,6 +27004,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26938,6 +27258,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27181,6 +27504,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27420,6 +27746,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27667,6 +27996,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27920,6 +28252,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>22.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
